--- a/TemperatureData/Audobon/0201_2024.xlsx
+++ b/TemperatureData/Audobon/0201_2024.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uvmoffice.sharepoint.com/sites/TeamMosher/Shared Documents/General/People/Scott, Reed/VTADS/HoboLoggerData/Audobon/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitrepos\VTADS\TemperatureData\Audobon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{97DC1F61-964C-4ECA-8A22-E6FDCDF42CCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41F7030B-5735-44C8-9F17-8A0902DFF784}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{CCC3A1BB-73EB-47FA-ADF8-D0FB384CDAE7}"/>
+    <workbookView xWindow="23880" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{CCC3A1BB-73EB-47FA-ADF8-D0FB384CDAE7}"/>
   </bookViews>
   <sheets>
     <sheet name="0201_2024" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>#</t>
   </si>
@@ -45,9 +45,6 @@
   </si>
   <si>
     <t>End Of File (LGR S/N: 21422130)</t>
-  </si>
-  <si>
-    <t>Logged</t>
   </si>
   <si>
     <t>#Hobo Logger data for Audobon Center</t>
@@ -924,11 +921,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4D0D53B-84B0-40BE-8CDE-6A3B5B543166}">
-  <dimension ref="A1:H6451"/>
+  <dimension ref="A1:H6444"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A6410" workbookViewId="0">
+      <selection activeCell="A6451" sqref="A6445:XFD6451"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="20.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -91156,104 +91158,6 @@
       </c>
       <c r="D6444">
         <v>39</v>
-      </c>
-    </row>
-    <row r="6445" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6445">
-        <v>6444</v>
-      </c>
-      <c r="B6445" s="1">
-        <v>45502.614583333336</v>
-      </c>
-      <c r="C6445">
-        <v>81.266000000000005</v>
-      </c>
-      <c r="D6445">
-        <v>992</v>
-      </c>
-    </row>
-    <row r="6446" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6446">
-        <v>6445</v>
-      </c>
-      <c r="B6446" s="1">
-        <v>45502.625</v>
-      </c>
-      <c r="C6446">
-        <v>79.325999999999993</v>
-      </c>
-      <c r="D6446">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6447" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6447">
-        <v>6446</v>
-      </c>
-      <c r="B6447" s="1">
-        <v>45502.635416666664</v>
-      </c>
-      <c r="C6447">
-        <v>73.753</v>
-      </c>
-      <c r="D6447">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6448" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6448">
-        <v>6447</v>
-      </c>
-      <c r="B6448" s="1">
-        <v>45502.645833333336</v>
-      </c>
-      <c r="C6448">
-        <v>75.138999999999996</v>
-      </c>
-      <c r="D6448">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6449" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6449">
-        <v>6448</v>
-      </c>
-      <c r="B6449" s="1">
-        <v>45502.65625</v>
-      </c>
-      <c r="C6449">
-        <v>70.308000000000007</v>
-      </c>
-      <c r="D6449">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6450" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6450">
-        <v>6449</v>
-      </c>
-      <c r="B6450" s="1">
-        <v>45502.657638888886</v>
-      </c>
-      <c r="E6450" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6450" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6451" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6451">
-        <v>6450</v>
-      </c>
-      <c r="B6451" s="1">
-        <v>45502.657638888886</v>
-      </c>
-      <c r="G6451" t="s">
-        <v>8</v>
-      </c>
-      <c r="H6451" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -91265,7 +91169,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D021CD9-AD75-4FB2-9ECB-9C401CD44637}">
   <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -91273,27 +91177,27 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -91529,15 +91433,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="94106a43-364c-4431-a764-9e3dd608a139" xsi:nil="true"/>
@@ -91548,14 +91443,49 @@
 </p:properties>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{208CE973-D5DF-469C-9A99-DC0ED30265EC}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{208CE973-D5DF-469C-9A99-DC0ED30265EC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="6f61aad6-7023-4354-b4be-ac6efb5d4555"/>
+    <ds:schemaRef ds:uri="94106a43-364c-4431-a764-9e3dd608a139"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{71E8E63E-700E-4086-882D-ED2D6073D9A8}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{03DCE7CC-BF34-4F64-A268-C40FB921F09C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="94106a43-364c-4431-a764-9e3dd608a139"/>
+    <ds:schemaRef ds:uri="6f61aad6-7023-4354-b4be-ac6efb5d4555"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{03DCE7CC-BF34-4F64-A268-C40FB921F09C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{71E8E63E-700E-4086-882D-ED2D6073D9A8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>